--- a/Stimuli/DRM_Setlists.xlsx
+++ b/Stimuli/DRM_Setlists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\CEPSW-Psychology BC Lab\Tess\Tobii\Noarlunga Project\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B77219-DA22-40B6-816E-A4E74D6E0262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CC00F-DBEF-4040-80F0-4874FF43B481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{53261134-AD4F-41FC-96F7-DDA86AC5C7FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53261134-AD4F-41FC-96F7-DDA86AC5C7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1015,9 +1014,6 @@
     <t>Fruit</t>
   </si>
   <si>
-    <t>Moarach</t>
-  </si>
-  <si>
     <t>Music</t>
   </si>
   <si>
@@ -1487,6 +1483,9 @@
   </si>
   <si>
     <t>Combat</t>
+  </si>
+  <si>
+    <t>Monarch</t>
   </si>
 </sst>
 </file>
@@ -1880,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C737AFA-9C7E-44CD-A7C9-9B8ECFB713B6}">
   <dimension ref="A1:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3108,97 +3107,97 @@
         <v>325</v>
       </c>
       <c r="D28" t="s">
+        <v>483</v>
+      </c>
+      <c r="E28" t="s">
         <v>326</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>327</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>328</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>329</v>
-      </c>
-      <c r="H28" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" t="s">
         <v>331</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>332</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>333</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>334</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>335</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>336</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>337</v>
-      </c>
-      <c r="H29" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" t="s">
         <v>339</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>340</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>341</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>342</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>343</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>344</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>345</v>
-      </c>
-      <c r="H30" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>346</v>
+      </c>
+      <c r="B31" t="s">
         <v>347</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>348</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>349</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>350</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>351</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>352</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>353</v>
-      </c>
-      <c r="H31" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -3244,7 +3243,7 @@
         <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G33" t="s">
         <v>165</v>
@@ -3307,111 +3306,111 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>355</v>
+      </c>
+      <c r="B36" t="s">
         <v>356</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>357</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>358</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>359</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>360</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>361</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>362</v>
-      </c>
-      <c r="H36" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>363</v>
+      </c>
+      <c r="B37" t="s">
         <v>364</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>365</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>366</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>367</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>368</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>369</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>370</v>
-      </c>
-      <c r="H37" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>371</v>
+      </c>
+      <c r="B38" t="s">
         <v>372</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>373</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>374</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>375</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>376</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>377</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>378</v>
-      </c>
-      <c r="H38" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>379</v>
+      </c>
+      <c r="B39" t="s">
         <v>380</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>381</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>382</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>383</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" t="s">
         <v>384</v>
       </c>
-      <c r="F39" t="s">
-        <v>355</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>385</v>
-      </c>
-      <c r="H39" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -3419,314 +3418,314 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>387</v>
+      </c>
+      <c r="B43" t="s">
         <v>388</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>389</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>390</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>392</v>
+      </c>
+      <c r="F43" t="s">
         <v>391</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>393</v>
       </c>
-      <c r="F43" t="s">
-        <v>392</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>394</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>395</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>396</v>
-      </c>
-      <c r="J43" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>397</v>
+      </c>
+      <c r="B44" t="s">
         <v>398</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>399</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>400</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>402</v>
+      </c>
+      <c r="F44" t="s">
         <v>401</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>403</v>
       </c>
-      <c r="F44" t="s">
-        <v>402</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>404</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>405</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>406</v>
-      </c>
-      <c r="J44" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>407</v>
+      </c>
+      <c r="B45" t="s">
         <v>408</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>409</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>410</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
+        <v>412</v>
+      </c>
+      <c r="F45" t="s">
         <v>411</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>413</v>
       </c>
-      <c r="F45" t="s">
-        <v>412</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>414</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>415</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>416</v>
-      </c>
-      <c r="J45" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>417</v>
+      </c>
+      <c r="B46" t="s">
         <v>418</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>419</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>420</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>422</v>
+      </c>
+      <c r="F46" t="s">
         <v>421</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>423</v>
       </c>
-      <c r="F46" t="s">
-        <v>422</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>424</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>425</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>426</v>
-      </c>
-      <c r="J46" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>427</v>
+      </c>
+      <c r="B47" t="s">
         <v>428</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>429</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>430</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
+        <v>432</v>
+      </c>
+      <c r="F47" t="s">
         <v>431</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>433</v>
       </c>
-      <c r="F47" t="s">
-        <v>432</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>434</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>435</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>436</v>
-      </c>
-      <c r="J47" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>437</v>
+      </c>
+      <c r="B48" t="s">
         <v>438</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>439</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>440</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>442</v>
+      </c>
+      <c r="F48" t="s">
         <v>441</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>443</v>
       </c>
-      <c r="F48" t="s">
-        <v>442</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>444</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>445</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>446</v>
-      </c>
-      <c r="J48" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>447</v>
+      </c>
+      <c r="B49" t="s">
         <v>448</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>449</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>450</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>452</v>
+      </c>
+      <c r="F49" t="s">
         <v>451</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>453</v>
       </c>
-      <c r="F49" t="s">
-        <v>452</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>454</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>455</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>456</v>
-      </c>
-      <c r="J49" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>457</v>
+      </c>
+      <c r="B50" t="s">
         <v>458</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>459</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>460</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
+        <v>462</v>
+      </c>
+      <c r="F50" t="s">
         <v>461</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>463</v>
       </c>
-      <c r="F50" t="s">
-        <v>462</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>464</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>465</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>466</v>
-      </c>
-      <c r="J50" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>467</v>
+      </c>
+      <c r="B51" t="s">
         <v>468</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>469</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>470</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>472</v>
+      </c>
+      <c r="F51" t="s">
         <v>471</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>473</v>
       </c>
-      <c r="F51" t="s">
-        <v>472</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="I51" t="s">
         <v>474</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>475</v>
-      </c>
-      <c r="J51" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>476</v>
+      </c>
+      <c r="F52" t="s">
         <v>477</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>478</v>
       </c>
-      <c r="G52" t="s">
+      <c r="I52" t="s">
         <v>479</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>480</v>
-      </c>
-      <c r="J52" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/Stimuli/DRM_Setlists.xlsx
+++ b/Stimuli/DRM_Setlists.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\CEPSW-Psychology BC Lab\Tess\Tobii\Noarlunga Project\Stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CC00F-DBEF-4040-80F0-4874FF43B481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953A9670-F932-4C92-9C60-7AE34B958A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{53261134-AD4F-41FC-96F7-DDA86AC5C7FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="485">
   <si>
     <t xml:space="preserve">Encoding Phase Lists </t>
   </si>
@@ -1486,6 +1486,9 @@
   </si>
   <si>
     <t>Monarch</t>
+  </si>
+  <si>
+    <t>Fur</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1883,7 @@
   <dimension ref="A1:X54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2320,7 +2323,7 @@
         <v>139</v>
       </c>
       <c r="T7" t="s">
-        <v>140</v>
+        <v>484</v>
       </c>
       <c r="U7" t="s">
         <v>141</v>
